--- a/internal/test/excels/test.test.xlsx
+++ b/internal/test/excels/test.test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13180" tabRatio="872" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="30240" windowHeight="13200" tabRatio="872" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="道具|Item" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
     <t>systemName</t>
   </si>
   <si>
-    <t>abc</t>
+    <t>cba</t>
   </si>
   <si>
     <t>#sdadasd</t>
@@ -1794,8 +1794,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2491,7 +2491,7 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
